--- a/verif/CV32E40P/FormalVerificationPlan/base_instruction_set/CV32E40P_RV32IMC_Exceptions.xlsx
+++ b/verif/CV32E40P/FormalVerificationPlan/base_instruction_set/CV32E40P_RV32IMC_Exceptions.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ntusinschi\Dropbox\OpenHW-Project\forkHW\core-v-docs\verif\CV32E40P\FormalVerificationPlan\base_instruction_set\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95FCF196-11CE-467C-916B-32611D13055F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCE6FEDD-0334-4644-BA6D-EFEF4C23E08B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="407" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="89">
   <si>
     <t>Requirement Location</t>
   </si>
@@ -44,13 +44,6 @@
   </si>
   <si>
     <t>Link to Coverage</t>
-  </si>
-  <si>
-    <t>ISA
-Chapter 1.4</t>
-  </si>
-  <si>
-    <t>Memory Access Exceptions</t>
   </si>
   <si>
     <t>ISA
@@ -60,82 +53,6 @@
     <t>Illegal Instructions</t>
   </si>
   <si>
-    <t>ISA
-Chapter 2.2 &amp; 2.5</t>
-  </si>
-  <si>
-    <t>instruction-address-misaligned exception</t>
-  </si>
-  <si>
-    <t>ISA
-Chapter 2.4</t>
-  </si>
-  <si>
-    <t>No Exceptions on ALU</t>
-  </si>
-  <si>
-    <t>This test case will attempt to cause exceptions using ALU instructions.    NOTE:  The test case writer will have to dig into the ALU instructions and see what can be done.  We know that a store to x0 will cause an exception.  But x0 as the rd in an ALU instruction should not.</t>
-  </si>
-  <si>
-    <t>Demonstrate that no ALU instruction causes an exception.</t>
-  </si>
-  <si>
-    <t>ISA
-Chapter 2.6</t>
-  </si>
-  <si>
-    <t>Demonstrate that miss-aligned load and store addresses cause exceptions.</t>
-  </si>
-  <si>
-    <t>ISA
-Chapter 11.2</t>
-  </si>
-  <si>
-    <t>Dynamic Rounding</t>
-  </si>
-  <si>
-    <t>This test case will be specifically created to cause this exception.</t>
-  </si>
-  <si>
-    <t>Demonstrate that If frm is set to an invalid value, any subsequent attempt to execute a floating-point operation with a dynamic rounding mode will raise an illegal instruction exception</t>
-  </si>
-  <si>
-    <t>ISA
-Chapter 11.6</t>
-  </si>
-  <si>
-    <t>NaN Handling</t>
-  </si>
-  <si>
-    <t>Cause the conditions as stated at ISA 11.6 exist then expect and service the exception.</t>
-  </si>
-  <si>
-    <t>Demonstrate that FMIN.S and FMAX.S can detect NaN and generate the expected exception.</t>
-  </si>
-  <si>
-    <t>ISA
-Chapter 11.7</t>
-  </si>
-  <si>
-    <t>Floating-Point Conversion and Move</t>
-  </si>
-  <si>
-    <t>This particular seqnece is stated to not cause an exception.</t>
-  </si>
-  <si>
-    <t>Demonstrate that the FCVT.S.W rd, x0 does not cause an exception</t>
-  </si>
-  <si>
-    <t>ISA
-Chapter 11.8</t>
-  </si>
-  <si>
-    <t>Floating-Point Compare Instructions</t>
-  </si>
-  <si>
-    <t>Create a code sequence that will trigger a invalid operation exception by a FP compare,  service the exception</t>
-  </si>
-  <si>
     <t>ISA-P
 Chapter 2.1</t>
   </si>
@@ -318,9 +235,6 @@
     <t>CSR illegal access</t>
   </si>
   <si>
-    <t>Memory accesses to inaccessible addresses raise a memory access exception</t>
-  </si>
-  <si>
     <t>Exception updates Machine status register</t>
   </si>
   <si>
@@ -340,9 +254,6 @@
     <t xml:space="preserve">Prove that all illegal instructions cause an exception </t>
   </si>
   <si>
-    <t>Prove that an memory access to an address which is not accessible raises an exception</t>
-  </si>
-  <si>
     <t>Any extension without corresponding bit set in MISA cause an exception. 64-bit instructions raise an exception if XLEN does not specify it is a 64-bit implementation. CSR instructions and FENCE.I raise exceptin if Zicsr &amp; Zifencei disabled. Instructions raise exception if there is a bit-field HINT-instructions violation</t>
   </si>
   <si>
@@ -350,18 +261,6 @@
   </si>
   <si>
     <t>Exaustive proof of correct handling of exceptions and update of architectural states as specified in the unprivileged ISA and privileged ISA standards under all possible circumstances</t>
-  </si>
-  <si>
-    <t>Load/Store Missaligned Address</t>
-  </si>
-  <si>
-    <t>Misaligned addresses for load and store instructions rise an exception</t>
-  </si>
-  <si>
-    <t>Misaligned address jump or branch cause an exception</t>
-  </si>
-  <si>
-    <t>Demonstrate that a misaligned address jump / branch attempt will cause and exception.</t>
   </si>
   <si>
     <t>MRET</t>
@@ -388,9 +287,6 @@
 </t>
   </si>
   <si>
-    <t>Prove that if either input to the compare instruction is a NaN, an exception will  happen.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Prove that all illegal CSR accesses generate an exception.
 </t>
   </si>
@@ -399,9 +295,6 @@
   </si>
   <si>
     <t>Exhaustive prrof the TW bit is zero and can not be changed.</t>
-  </si>
-  <si>
-    <t>Handled by RV32I.  Exaustive proof of the ALU instruction being decoded, executed and updating architectural states as specified in the unprivileged ISA standard under all possible circumstances</t>
   </si>
   <si>
     <t>Prove the ECALL and EBREAK function as expected</t>
@@ -820,12 +713,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMK31"/>
+  <dimension ref="A1:AMK23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="73" zoomScaleNormal="55" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="H35" sqref="H35"/>
+      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -850,19 +743,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>86</v>
+        <v>61</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>3</v>
@@ -871,13 +764,13 @@
         <v>4</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="K1" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="43.2">
+    <row r="2" spans="1:11" ht="72">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -885,206 +778,206 @@
         <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>88</v>
+        <v>46</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>73</v>
+        <v>48</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="72">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="67.2" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="28.8">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="G3" s="6" t="s">
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="43.2">
+      <c r="A5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="28.8">
+      <c r="A6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="H3" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="43.2">
-      <c r="A4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="57.6">
-      <c r="A5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="K5" s="6" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="48.6" customHeight="1">
-      <c r="A6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D6" s="1" t="s">
+      <c r="F6" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="28.8">
+      <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="K6" s="6" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="57.6">
-      <c r="A7" s="1" t="s">
+      <c r="B7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>100</v>
-      </c>
       <c r="F7" s="6" t="s">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>73</v>
+        <v>48</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>71</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="43.2">
@@ -1101,25 +994,25 @@
         <v>25</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>73</v>
+        <v>48</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>71</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="43.2">
@@ -1133,568 +1026,288 @@
         <v>28</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>29</v>
+        <v>88</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>73</v>
+        <v>48</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>71</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="43.2">
       <c r="A10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="43.2">
+      <c r="A11" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="H10" s="6" t="s">
+      <c r="B11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="I10" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="J10" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="K10" s="6" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="67.2" customHeight="1">
-      <c r="A11" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>100</v>
-      </c>
       <c r="F11" s="6" t="s">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="H11" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="43.2">
+      <c r="A12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="I11" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="J11" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="K11" s="6" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="28.8">
-      <c r="A12" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="F12" s="6" t="s">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>73</v>
+        <v>48</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>71</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="43.2">
       <c r="A13" s="1" t="s">
-        <v>94</v>
+        <v>37</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>92</v>
+        <v>38</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>91</v>
+        <v>39</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>73</v>
+        <v>48</v>
       </c>
       <c r="I13" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="K13" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="62.4" customHeight="1">
+      <c r="B14" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="J13" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="K13" s="6" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="28.8">
-      <c r="A14" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="C14" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="K14" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="41.4">
+      <c r="A15" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="I14" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="J14" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="K14" s="6" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="28.8">
-      <c r="A15" s="1" t="s">
+      <c r="C15" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="K15" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="41.4">
+      <c r="A16" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B16" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="I15" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="J15" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="K15" s="6" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="43.2">
-      <c r="A16" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="C16" s="1" t="s">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>100</v>
+        <v>79</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>72</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>73</v>
+        <v>48</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="43.2">
-      <c r="A17" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="I17" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="J17" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="K17" s="6" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="43.2">
-      <c r="A18" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="H18" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="I18" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="J18" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="K18" s="6" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="43.2">
-      <c r="A19" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="H19" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="I19" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="J19" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="K19" s="6" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="43.2">
-      <c r="A20" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="H20" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="I20" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="J20" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="K20" s="6" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="43.2">
-      <c r="A21" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="H21" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="I21" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="J21" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="K21" s="6" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="62.4" customHeight="1">
-      <c r="B22" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E22" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="G22" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="H22" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="I22" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="J22" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="K22" s="6" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="41.4">
-      <c r="A23" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="E23" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="H23" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="I23" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="J23" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="K23" s="6" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="41.4">
-      <c r="A24" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="E24" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="H24" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="I24" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="J24" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="K24" s="6" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
-      <c r="A25" s="8"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
-    </row>
-    <row r="29" spans="1:11" ht="37.799999999999997" customHeight="1"/>
-    <row r="30" spans="1:11" ht="31.8" customHeight="1"/>
-    <row r="31" spans="1:11" ht="31.8" customHeight="1"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+    </row>
+    <row r="21" spans="1:11" ht="37.799999999999997" customHeight="1"/>
+    <row r="22" spans="1:11" ht="31.8" customHeight="1"/>
+    <row r="23" spans="1:11" ht="31.8" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -1705,25 +1318,25 @@
           <x14:formula1>
             <xm:f>DONOTDELETE!$A$2:$A$3</xm:f>
           </x14:formula1>
-          <xm:sqref>F2:F24</xm:sqref>
+          <xm:sqref>F2:F16</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{44C187C2-5620-4770-AB85-B49478AC18A3}">
           <x14:formula1>
             <xm:f>DONOTDELETE!$C$2:$C$7</xm:f>
           </x14:formula1>
-          <xm:sqref>G2:G24</xm:sqref>
+          <xm:sqref>G2:G16</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{621F11E8-59CC-419E-AB1C-F1014D508078}">
           <x14:formula1>
             <xm:f>DONOTDELETE!$E$2:$E$4</xm:f>
           </x14:formula1>
-          <xm:sqref>H2:H24</xm:sqref>
+          <xm:sqref>H2:H16</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{2B1ECCD7-74BE-43CE-BC8A-3BA6E2974ABD}">
           <x14:formula1>
             <xm:f>DONOTDELETE!$G$2:$G$5</xm:f>
           </x14:formula1>
-          <xm:sqref>I2:I24</xm:sqref>
+          <xm:sqref>I2:I16</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1746,10 +1359,10 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="D1" s="3"/>
       <c r="E1" s="3" t="s">
@@ -1762,59 +1375,59 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="C2" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="E2" t="s">
-        <v>73</v>
+        <v>48</v>
       </c>
       <c r="G2" t="s">
-        <v>74</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="C3" t="s">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="E3" t="s">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="G3" t="s">
-        <v>77</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="C4" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="E4" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="G4" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="C5" t="s">
-        <v>81</v>
+        <v>56</v>
       </c>
       <c r="G5" t="s">
-        <v>82</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="C6" t="s">
-        <v>83</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="C7" t="s">
-        <v>84</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/verif/CV32E40P/FormalVerificationPlan/base_instruction_set/CV32E40P_RV32IMC_Exceptions.xlsx
+++ b/verif/CV32E40P/FormalVerificationPlan/base_instruction_set/CV32E40P_RV32IMC_Exceptions.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ntusinschi\Dropbox\OpenHW-Project\forkHW\core-v-docs\verif\CV32E40P\FormalVerificationPlan\base_instruction_set\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCE6FEDD-0334-4644-BA6D-EFEF4C23E08B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAAB83FC-E4D7-4FF9-8CEE-2169402B0F14}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="407" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="105">
   <si>
     <t>Requirement Location</t>
   </si>
@@ -162,9 +162,6 @@
 Chapter 3.2.1</t>
   </si>
   <si>
-    <t>Environment Call and Breakpoint</t>
-  </si>
-  <si>
     <t>ISA-P
 Chapter 3.2.3</t>
   </si>
@@ -187,27 +184,18 @@
     <t>Assertion</t>
   </si>
   <si>
-    <t>Full Proof</t>
-  </si>
-  <si>
     <t>Signature Check</t>
   </si>
   <si>
     <t>Cover Statement</t>
   </si>
   <si>
-    <t>Partial Proof</t>
-  </si>
-  <si>
     <t>Check against ISS</t>
   </si>
   <si>
     <t>Assumption</t>
   </si>
   <si>
-    <t>Witness</t>
-  </si>
-  <si>
     <t>Check against RM</t>
   </si>
   <si>
@@ -224,12 +212,6 @@
   </si>
   <si>
     <t>Feature Description</t>
-  </si>
-  <si>
-    <t>Coverage Details</t>
-  </si>
-  <si>
-    <t>RV32.xcpt_a</t>
   </si>
   <si>
     <t>CSR illegal access</t>
@@ -270,9 +252,6 @@
   </si>
   <si>
     <t>Prove MRET instruction executes as expected</t>
-  </si>
-  <si>
-    <t>ECALL and EBREAK instructions</t>
   </si>
   <si>
     <t>Capture waiting for interrupt behavior</t>
@@ -297,9 +276,6 @@
     <t>Exhaustive prrof the TW bit is zero and can not be changed.</t>
   </si>
   <si>
-    <t>Prove the ECALL and EBREAK function as expected</t>
-  </si>
-  <si>
     <t>Prove that the mepc register contents have the correct program address of the current instruction when an exception happens.</t>
   </si>
   <si>
@@ -310,13 +286,86 @@
   </si>
   <si>
     <t>Prove that the timer registers and features operate as expected.</t>
+  </si>
+  <si>
+    <t>RV_chk.ops.RV32I.Arith_a</t>
+  </si>
+  <si>
+    <t>RV_chk.ops.RV32I.CallBreak_a</t>
+  </si>
+  <si>
+    <t>RV_chk.ops.RV32I.FENCE_I_a</t>
+  </si>
+  <si>
+    <t>RV_chk.ops.RV32I.Jump_a</t>
+  </si>
+  <si>
+    <t>RV_chk.ops.RV32I.RET_a</t>
+  </si>
+  <si>
+    <t>RV_chk.ops.bubble_a</t>
+  </si>
+  <si>
+    <t>RV_chk.ops.reset_a</t>
+  </si>
+  <si>
+    <t>RV_chk.ops.xcpt_fetch_dec_a</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>RV_chk.ops.RV32I.WFI_*a</t>
+  </si>
+  <si>
+    <t>RV_chk.ops.RV32I.Mem_*a</t>
+  </si>
+  <si>
+    <t>RV_chk.ops.RV32I.EBREAK_*a</t>
+  </si>
+  <si>
+    <t>RV_chk.ops.RV32I.CSR_*a</t>
+  </si>
+  <si>
+    <t>RV_chk.ops.RV32I.Branch_*a</t>
+  </si>
+  <si>
+    <t>Full Proof w/ Reachable Witness</t>
+  </si>
+  <si>
+    <t>Partial Proof w/ Reachable Witness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reachable Witness </t>
+  </si>
+  <si>
+    <t>ISA-P
+Chapter 3.2.0</t>
+  </si>
+  <si>
+    <t>Environment Call</t>
+  </si>
+  <si>
+    <t>Environment  Breakpoint</t>
+  </si>
+  <si>
+    <t>C.EBREAK, EBREAK instructions</t>
+  </si>
+  <si>
+    <t>ECALL  instructions</t>
+  </si>
+  <si>
+    <t>Prove the ECALL  function as expected for I-ext and C-extension</t>
+  </si>
+  <si>
+    <t>Prove the EBREAK function as expected for I-ext and C-extension</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -346,6 +395,12 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -356,7 +411,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.249977111117893"/>
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -392,13 +447,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -713,29 +768,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMK23"/>
+  <dimension ref="A1:AMJ24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="73" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
+      <selection pane="bottomLeft" activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="21.21875" style="1" customWidth="1"/>
     <col min="2" max="2" width="29" style="1" customWidth="1"/>
-    <col min="3" max="3" width="63.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="50.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="40.44140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="34" style="1" customWidth="1"/>
     <col min="5" max="5" width="69.33203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="44.44140625" style="1" customWidth="1"/>
     <col min="7" max="7" width="17.109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="1025" width="17" style="1" customWidth="1"/>
+    <col min="9" max="9" width="38.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="1024" width="17" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="28.2">
+    <row r="1" spans="1:10" ht="28.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -743,19 +798,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>44</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>45</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>3</v>
@@ -764,13 +819,10 @@
         <v>4</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="K1" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="72">
+    <row r="2" spans="1:10" ht="74.400000000000006" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -778,69 +830,63 @@
         <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>46</v>
+        <v>88</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>49</v>
+        <v>95</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="67.2" customHeight="1">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="67.2" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>46</v>
+        <v>88</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>49</v>
+        <v>95</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="28.8">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="43.2">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -857,60 +903,54 @@
         <v>12</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>46</v>
+        <v>88</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>49</v>
+        <v>95</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="43.2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="57.6">
       <c r="A5" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>46</v>
+        <v>88</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>49</v>
+        <v>95</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="K5" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="28.8">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="28.8">
       <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
@@ -924,28 +964,25 @@
         <v>16</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>46</v>
+        <v>88</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>49</v>
+        <v>95</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="K6" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="28.8">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="43.2">
       <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
@@ -962,25 +999,22 @@
         <v>21</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>46</v>
+        <v>88</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>49</v>
+        <v>95</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="K7" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="43.2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="57.6">
       <c r="A8" s="1" t="s">
         <v>22</v>
       </c>
@@ -994,28 +1028,25 @@
         <v>25</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>46</v>
+        <v>88</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>49</v>
+        <v>95</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="43.2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="43.2">
       <c r="A9" s="1" t="s">
         <v>26</v>
       </c>
@@ -1026,31 +1057,28 @@
         <v>28</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F9" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>46</v>
-      </c>
       <c r="G9" s="6" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>49</v>
+        <v>95</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="K9" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="43.2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="72">
       <c r="A10" s="1" t="s">
         <v>29</v>
       </c>
@@ -1061,31 +1089,28 @@
         <v>31</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>46</v>
+        <v>88</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>49</v>
+        <v>95</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="K10" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="43.2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="43.2">
       <c r="A11" s="1" t="s">
         <v>32</v>
       </c>
@@ -1096,66 +1121,60 @@
         <v>34</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>46</v>
+        <v>88</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>49</v>
+        <v>95</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="K11" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="43.2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="57.6">
       <c r="A12" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>46</v>
+        <v>88</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>49</v>
+        <v>95</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="K12" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="43.2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="43.2">
       <c r="A13" s="1" t="s">
         <v>37</v>
       </c>
@@ -1166,177 +1185,197 @@
         <v>39</v>
       </c>
       <c r="D13" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="62.4" customHeight="1">
+      <c r="B14" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="41.4">
+      <c r="A15" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="41.4">
+      <c r="A16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F16" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="I13" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="J13" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="K13" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="62.4" customHeight="1">
-      <c r="B14" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E14" s="10" t="s">
+      <c r="G16" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="41.4">
+      <c r="A17" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F14" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="I14" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="J14" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="K14" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="41.4">
-      <c r="A15" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="I15" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="J15" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="K15" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="41.4">
-      <c r="A16" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="I16" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="J16" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="K16" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="8"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-    </row>
-    <row r="21" spans="1:11" ht="37.799999999999997" customHeight="1"/>
-    <row r="22" spans="1:11" ht="31.8" customHeight="1"/>
-    <row r="23" spans="1:11" ht="31.8" customHeight="1"/>
+      <c r="E17" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="9"/>
+    </row>
+    <row r="22" spans="1:10" ht="37.799999999999997" customHeight="1"/>
+    <row r="23" spans="1:10" ht="31.8" customHeight="1"/>
+    <row r="24" spans="1:10" ht="31.8" customHeight="1"/>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{44594A8E-0B77-4BC6-8DA7-EE7E9A1D49B8}">
-          <x14:formula1>
-            <xm:f>DONOTDELETE!$A$2:$A$3</xm:f>
-          </x14:formula1>
-          <xm:sqref>F2:F16</xm:sqref>
-        </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{44C187C2-5620-4770-AB85-B49478AC18A3}">
           <x14:formula1>
             <xm:f>DONOTDELETE!$C$2:$C$7</xm:f>
           </x14:formula1>
-          <xm:sqref>G2:G16</xm:sqref>
+          <xm:sqref>G2:G17</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{621F11E8-59CC-419E-AB1C-F1014D508078}">
           <x14:formula1>
             <xm:f>DONOTDELETE!$E$2:$E$4</xm:f>
           </x14:formula1>
-          <xm:sqref>H2:H16</xm:sqref>
+          <xm:sqref>H2:H17</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{2B1ECCD7-74BE-43CE-BC8A-3BA6E2974ABD}">
           <x14:formula1>
             <xm:f>DONOTDELETE!$G$2:$G$5</xm:f>
           </x14:formula1>
-          <xm:sqref>I2:I16</xm:sqref>
+          <xm:sqref>I2:I17</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{44594A8E-0B77-4BC6-8DA7-EE7E9A1D49B8}">
+          <x14:formula1>
+            <xm:f>DONOTDELETE!$A$2:$A$16</xm:f>
+          </x14:formula1>
+          <xm:sqref>F2:F17</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1346,23 +1385,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6C42FB8-F8C0-46BB-9803-0EEC5A55A931}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>44</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>45</v>
       </c>
       <c r="D1" s="3"/>
       <c r="E1" s="3" t="s">
@@ -1375,59 +1417,111 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" t="s">
         <v>46</v>
       </c>
-      <c r="C2" t="s">
-        <v>47</v>
-      </c>
       <c r="E2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G2" t="s">
-        <v>49</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="C3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4" t="s">
         <v>50</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E4" t="s">
         <v>51</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C5" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="C4" t="s">
+      <c r="G5" t="s">
         <v>53</v>
       </c>
-      <c r="E4" t="s">
-        <v>54</v>
-      </c>
-      <c r="G4" t="s">
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C7" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
-      <c r="C5" t="s">
-        <v>56</v>
-      </c>
-      <c r="G5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="C6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="C7" t="s">
-        <v>59</v>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
